--- a/medicine/Psychotrope/Cervecería_Bavaria/Cervecería_Bavaria.xlsx
+++ b/medicine/Psychotrope/Cervecería_Bavaria/Cervecería_Bavaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cervecer%C3%ADa_Bavaria</t>
+          <t>Cervecería_Bavaria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bavaria S.A. ou Cervecería Bavaria est une brasserie colombienne fondée le 4 avril 1889 par Leo S. Kopp, un immigrant allemand, et qui a son siège à Bogota.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cervecer%C3%ADa_Bavaria</t>
+          <t>Cervecería_Bavaria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1913, la compagnie lance sur le marché Aguila, sa bière la plus célèbre. En 1981, elle devient cotée à la Bourse de valeurs de Colombie. Elle élargit son champ d'action en 1994 en produisant d'autres boissons. C'est une filiale de SABMiller depuis 2005[1]. 
-Elle fait partie des entreprises qui eurent des liens avec les paramilitaires des Autodéfenses unies de Colombie[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1913, la compagnie lance sur le marché Aguila, sa bière la plus célèbre. En 1981, elle devient cotée à la Bourse de valeurs de Colombie. Elle élargit son champ d'action en 1994 en produisant d'autres boissons. C'est une filiale de SABMiller depuis 2005. 
+Elle fait partie des entreprises qui eurent des liens avec les paramilitaires des Autodéfenses unies de Colombie. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cervecer%C3%ADa_Bavaria</t>
+          <t>Cervecería_Bavaria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bières
-Águila (pilsner, 4 % vol.alc.)
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Águila (pilsner, 4 % vol.alc.)
 Águila Light (pilsner, 3,5 % vol. alc.)
 Brava (pilsner, 6,5 % vol. alc.)
 Club Colombia (pilsner, 4,7 % vol. alc.)
@@ -555,9 +574,43 @@
 Costeña (pilsner, 4 % vol. alc.)
 Leona (pilsner, 4 % vol. alc.)
 Pilsen (pilsner, 4,2 % vol. alc.)
-Póker (pilsner, 4 % vol. alc.)
-Autres boissons
-Brisa (eau minérale, eau gazeuse)
+Póker (pilsner, 4 % vol. alc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cervecería_Bavaria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervecer%C3%ADa_Bavaria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres boissons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brisa (eau minérale, eau gazeuse)
 Brisa Spa (eau minérale parfumée)
 Malta Leona (boisson énergétique)
 Malta Leona Cool (boisson maltée)
@@ -565,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cervecer%C3%ADa_Bavaria</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cervecería_Bavaria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cervecer%C3%ADa_Bavaria</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Participations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1994, Bavaria Business Group rachète 51% du capital de la société colombienne SOFASA-Renault qu'elle revendra en 2008.
 </t>
